--- a/filters/net.sf.okapi.filters.openxml.tests/gold/OutsampleMore.xlsx
+++ b/filters/net.sf.okapi.filters.openxml.tests/gold/OutsampleMore.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19320" windowHeight="12120"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="19320" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Lorem</t>
   </si>
@@ -59,12 +60,48 @@
       <t>osa</t>
     </r>
   </si>
+  <si>
+    <t>plunk</t>
+  </si>
+  <si>
+    <t>plunket</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>bologna</t>
+  </si>
+  <si>
+    <t>hawthorne</t>
+  </si>
+  <si>
+    <t>borscht</t>
+  </si>
+  <si>
+    <t>clues</t>
+  </si>
+  <si>
+    <t>calories</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>lumps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +160,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +195,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,10 +210,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,20 +226,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+    <cellStyle name="BabeTheBlueStyle" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B14" totalsRowShown="0">
+  <autoFilter ref="A1:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Lorem"/>
+    <tableColumn id="2" name="111"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,8 +567,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>111</v>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25">
@@ -528,7 +620,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -536,7 +628,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -544,28 +636,82 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <f>SUM(B1:B9)</f>
-        <v>4995</v>
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -573,13 +719,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>998</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>